--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Nid1-Ptprf.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Nid1-Ptprf.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>34.5555011323034</v>
+        <v>49.25062133333333</v>
       </c>
       <c r="H2">
-        <v>34.5555011323034</v>
+        <v>147.751864</v>
       </c>
       <c r="I2">
-        <v>0.194507215841924</v>
+        <v>0.2521871127211155</v>
       </c>
       <c r="J2">
-        <v>0.194507215841924</v>
+        <v>0.2521871127211155</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.0716698723529368</v>
+        <v>0.2138683333333334</v>
       </c>
       <c r="N2">
-        <v>0.0716698723529368</v>
+        <v>0.6416050000000001</v>
       </c>
       <c r="O2">
-        <v>0.009399921761842475</v>
+        <v>0.02663324640928231</v>
       </c>
       <c r="P2">
-        <v>0.009399921761842475</v>
+        <v>0.02663324640928232</v>
       </c>
       <c r="Q2">
-        <v>2.476588355243948</v>
+        <v>10.53314830019111</v>
       </c>
       <c r="R2">
-        <v>2.476588355243948</v>
+        <v>94.79833470172002</v>
       </c>
       <c r="S2">
-        <v>0.001828352611027893</v>
+        <v>0.006716561514346925</v>
       </c>
       <c r="T2">
-        <v>0.001828352611027893</v>
+        <v>0.006716561514346926</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>34.5555011323034</v>
+        <v>49.25062133333333</v>
       </c>
       <c r="H3">
-        <v>34.5555011323034</v>
+        <v>147.751864</v>
       </c>
       <c r="I3">
-        <v>0.194507215841924</v>
+        <v>0.2521871127211155</v>
       </c>
       <c r="J3">
-        <v>0.194507215841924</v>
+        <v>0.2521871127211155</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.79539757230939</v>
+        <v>3.876179</v>
       </c>
       <c r="N3">
-        <v>3.79539757230939</v>
+        <v>11.628537</v>
       </c>
       <c r="O3">
-        <v>0.497788527641116</v>
+        <v>0.4827046100021922</v>
       </c>
       <c r="P3">
-        <v>0.497788527641116</v>
+        <v>0.4827046100021922</v>
       </c>
       <c r="Q3">
-        <v>131.1518651074787</v>
+        <v>190.9042241492187</v>
       </c>
       <c r="R3">
-        <v>131.1518651074787</v>
+        <v>1718.138017342968</v>
       </c>
       <c r="S3">
-        <v>0.09682346058952411</v>
+        <v>0.121731881893625</v>
       </c>
       <c r="T3">
-        <v>0.09682346058952411</v>
+        <v>0.121731881893625</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>34.5555011323034</v>
+        <v>49.25062133333333</v>
       </c>
       <c r="H4">
-        <v>34.5555011323034</v>
+        <v>147.751864</v>
       </c>
       <c r="I4">
-        <v>0.194507215841924</v>
+        <v>0.2521871127211155</v>
       </c>
       <c r="J4">
-        <v>0.194507215841924</v>
+        <v>0.2521871127211155</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.148493352936863</v>
+        <v>0.02104366666666667</v>
       </c>
       <c r="N4">
-        <v>0.148493352936863</v>
+        <v>0.06313100000000001</v>
       </c>
       <c r="O4">
-        <v>0.01947576930075245</v>
+        <v>0.00262058973833496</v>
       </c>
       <c r="P4">
-        <v>0.01947576930075245</v>
+        <v>0.00262058973833496</v>
       </c>
       <c r="Q4">
-        <v>5.131262225549298</v>
+        <v>1.036413658464889</v>
       </c>
       <c r="R4">
-        <v>5.131262225549298</v>
+        <v>9.327722926184002</v>
       </c>
       <c r="S4">
-        <v>0.003788177663068976</v>
+        <v>0.0006608789597372771</v>
       </c>
       <c r="T4">
-        <v>0.003788177663068976</v>
+        <v>0.0006608789597372771</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>34.5555011323034</v>
+        <v>49.25062133333333</v>
       </c>
       <c r="H5">
-        <v>34.5555011323034</v>
+        <v>147.751864</v>
       </c>
       <c r="I5">
-        <v>0.194507215841924</v>
+        <v>0.2521871127211155</v>
       </c>
       <c r="J5">
-        <v>0.194507215841924</v>
+        <v>0.2521871127211155</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.0349314136909622</v>
+        <v>0.237489</v>
       </c>
       <c r="N5">
-        <v>0.0349314136909622</v>
+        <v>0.7124669999999999</v>
       </c>
       <c r="O5">
-        <v>0.004581458637300655</v>
+        <v>0.02957475264295343</v>
       </c>
       <c r="P5">
-        <v>0.004581458637300655</v>
+        <v>0.02957475264295343</v>
       </c>
       <c r="Q5">
-        <v>1.207072505351003</v>
+        <v>11.696480809832</v>
       </c>
       <c r="R5">
-        <v>1.207072505351003</v>
+        <v>105.268327288488</v>
       </c>
       <c r="S5">
-        <v>0.0008911267640362857</v>
+        <v>0.007458371478467608</v>
       </c>
       <c r="T5">
-        <v>0.0008911267640362857</v>
+        <v>0.007458371478467608</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,123 +776,123 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>34.5555011323034</v>
+        <v>49.25062133333333</v>
       </c>
       <c r="H6">
-        <v>34.5555011323034</v>
+        <v>147.751864</v>
       </c>
       <c r="I6">
-        <v>0.194507215841924</v>
+        <v>0.2521871127211155</v>
       </c>
       <c r="J6">
-        <v>0.194507215841924</v>
+        <v>0.2521871127211155</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.57402575479224</v>
+        <v>0.05256933333333333</v>
       </c>
       <c r="N6">
-        <v>3.57402575479224</v>
+        <v>0.157708</v>
       </c>
       <c r="O6">
-        <v>0.4687543226589885</v>
+        <v>0.006546513859329486</v>
       </c>
       <c r="P6">
-        <v>0.4687543226589885</v>
+        <v>0.006546513859329486</v>
       </c>
       <c r="Q6">
-        <v>123.5022510166048</v>
+        <v>2.589072329745778</v>
       </c>
       <c r="R6">
-        <v>123.5022510166048</v>
+        <v>23.301650967712</v>
       </c>
       <c r="S6">
-        <v>0.09117609821426678</v>
+        <v>0.00165094642857307</v>
       </c>
       <c r="T6">
-        <v>0.09117609821426678</v>
+        <v>0.00165094642857307</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>112.611194676887</v>
+        <v>49.25062133333333</v>
       </c>
       <c r="H7">
-        <v>112.611194676887</v>
+        <v>147.751864</v>
       </c>
       <c r="I7">
-        <v>0.6338698392875581</v>
+        <v>0.2521871127211155</v>
       </c>
       <c r="J7">
-        <v>0.6338698392875581</v>
+        <v>0.2521871127211155</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.0716698723529368</v>
+        <v>3.628977</v>
       </c>
       <c r="N7">
-        <v>0.0716698723529368</v>
+        <v>10.886931</v>
       </c>
       <c r="O7">
-        <v>0.009399921761842475</v>
+        <v>0.4519202873479077</v>
       </c>
       <c r="P7">
-        <v>0.009399921761842475</v>
+        <v>0.4519202873479077</v>
       </c>
       <c r="Q7">
-        <v>8.070829948004206</v>
+        <v>178.729372054376</v>
       </c>
       <c r="R7">
-        <v>8.070829948004206</v>
+        <v>1608.564348489384</v>
       </c>
       <c r="S7">
-        <v>0.00595832689649471</v>
+        <v>0.1139684724463657</v>
       </c>
       <c r="T7">
-        <v>0.00595832689649471</v>
+        <v>0.1139684724463657</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>112.611194676887</v>
+        <v>112.7853953333333</v>
       </c>
       <c r="H8">
-        <v>112.611194676887</v>
+        <v>338.356186</v>
       </c>
       <c r="I8">
-        <v>0.6338698392875581</v>
+        <v>0.577516027944451</v>
       </c>
       <c r="J8">
-        <v>0.6338698392875581</v>
+        <v>0.577516027944451</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.79539757230939</v>
+        <v>0.2138683333333334</v>
       </c>
       <c r="N8">
-        <v>3.79539757230939</v>
+        <v>0.6416050000000001</v>
       </c>
       <c r="O8">
-        <v>0.497788527641116</v>
+        <v>0.02663324640928231</v>
       </c>
       <c r="P8">
-        <v>0.497788527641116</v>
+        <v>0.02663324640928232</v>
       </c>
       <c r="Q8">
-        <v>427.404254891517</v>
+        <v>24.12122452428111</v>
       </c>
       <c r="R8">
-        <v>427.404254891517</v>
+        <v>217.09102071853</v>
       </c>
       <c r="S8">
-        <v>0.3155331340150644</v>
+        <v>0.01538112667755453</v>
       </c>
       <c r="T8">
-        <v>0.3155331340150644</v>
+        <v>0.01538112667755454</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>112.611194676887</v>
+        <v>112.7853953333333</v>
       </c>
       <c r="H9">
-        <v>112.611194676887</v>
+        <v>338.356186</v>
       </c>
       <c r="I9">
-        <v>0.6338698392875581</v>
+        <v>0.577516027944451</v>
       </c>
       <c r="J9">
-        <v>0.6338698392875581</v>
+        <v>0.577516027944451</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.148493352936863</v>
+        <v>3.876179</v>
       </c>
       <c r="N9">
-        <v>0.148493352936863</v>
+        <v>11.628537</v>
       </c>
       <c r="O9">
-        <v>0.01947576930075245</v>
+        <v>0.4827046100021922</v>
       </c>
       <c r="P9">
-        <v>0.01947576930075245</v>
+        <v>0.4827046100021922</v>
       </c>
       <c r="Q9">
-        <v>16.72201387579677</v>
+        <v>437.1763808977647</v>
       </c>
       <c r="R9">
-        <v>16.72201387579677</v>
+        <v>3934.587428079882</v>
       </c>
       <c r="S9">
-        <v>0.01234510275666952</v>
+        <v>0.2787696490389414</v>
       </c>
       <c r="T9">
-        <v>0.01234510275666952</v>
+        <v>0.2787696490389414</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>112.611194676887</v>
+        <v>112.7853953333333</v>
       </c>
       <c r="H10">
-        <v>112.611194676887</v>
+        <v>338.356186</v>
       </c>
       <c r="I10">
-        <v>0.6338698392875581</v>
+        <v>0.577516027944451</v>
       </c>
       <c r="J10">
-        <v>0.6338698392875581</v>
+        <v>0.577516027944451</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.0349314136909622</v>
+        <v>0.02104366666666667</v>
       </c>
       <c r="N10">
-        <v>0.0349314136909622</v>
+        <v>0.06313100000000001</v>
       </c>
       <c r="O10">
-        <v>0.004581458637300655</v>
+        <v>0.00262058973833496</v>
       </c>
       <c r="P10">
-        <v>0.004581458637300655</v>
+        <v>0.00262058973833496</v>
       </c>
       <c r="Q10">
-        <v>3.93366822749182</v>
+        <v>2.373418264262889</v>
       </c>
       <c r="R10">
-        <v>3.93366822749182</v>
+        <v>21.360764378366</v>
       </c>
       <c r="S10">
-        <v>0.002904048450128361</v>
+        <v>0.001513432576555194</v>
       </c>
       <c r="T10">
-        <v>0.002904048450128361</v>
+        <v>0.001513432576555194</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,185 +1086,185 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>112.611194676887</v>
+        <v>112.7853953333333</v>
       </c>
       <c r="H11">
-        <v>112.611194676887</v>
+        <v>338.356186</v>
       </c>
       <c r="I11">
-        <v>0.6338698392875581</v>
+        <v>0.577516027944451</v>
       </c>
       <c r="J11">
-        <v>0.6338698392875581</v>
+        <v>0.577516027944451</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.57402575479224</v>
+        <v>0.237489</v>
       </c>
       <c r="N11">
-        <v>3.57402575479224</v>
+        <v>0.7124669999999999</v>
       </c>
       <c r="O11">
-        <v>0.4687543226589885</v>
+        <v>0.02957475264295343</v>
       </c>
       <c r="P11">
-        <v>0.4687543226589885</v>
+        <v>0.02957475264295343</v>
       </c>
       <c r="Q11">
-        <v>402.4753100531169</v>
+        <v>26.78529075231799</v>
       </c>
       <c r="R11">
-        <v>402.4753100531169</v>
+        <v>241.0676167708619</v>
       </c>
       <c r="S11">
-        <v>0.2971292271692012</v>
+        <v>0.01707989367379812</v>
       </c>
       <c r="T11">
-        <v>0.2971292271692012</v>
+        <v>0.01707989367379812</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.36172956356006</v>
+        <v>112.7853953333333</v>
       </c>
       <c r="H12">
-        <v>0.36172956356006</v>
+        <v>338.356186</v>
       </c>
       <c r="I12">
-        <v>0.002036116044921371</v>
+        <v>0.577516027944451</v>
       </c>
       <c r="J12">
-        <v>0.002036116044921371</v>
+        <v>0.577516027944451</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.0716698723529368</v>
+        <v>0.05256933333333333</v>
       </c>
       <c r="N12">
-        <v>0.0716698723529368</v>
+        <v>0.157708</v>
       </c>
       <c r="O12">
-        <v>0.009399921761842475</v>
+        <v>0.006546513859329486</v>
       </c>
       <c r="P12">
-        <v>0.009399921761842475</v>
+        <v>0.006546513859329486</v>
       </c>
       <c r="Q12">
-        <v>0.02592511164663304</v>
+        <v>5.929053042409777</v>
       </c>
       <c r="R12">
-        <v>0.02592511164663304</v>
+        <v>53.36147738168799</v>
       </c>
       <c r="S12">
-        <v>1.913933152029303E-05</v>
+        <v>0.003780716680923263</v>
       </c>
       <c r="T12">
-        <v>1.913933152029303E-05</v>
+        <v>0.003780716680923263</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>21</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.36172956356006</v>
+        <v>112.7853953333333</v>
       </c>
       <c r="H13">
-        <v>0.36172956356006</v>
+        <v>338.356186</v>
       </c>
       <c r="I13">
-        <v>0.002036116044921371</v>
+        <v>0.577516027944451</v>
       </c>
       <c r="J13">
-        <v>0.002036116044921371</v>
+        <v>0.577516027944451</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.79539757230939</v>
+        <v>3.628977</v>
       </c>
       <c r="N13">
-        <v>3.79539757230939</v>
+        <v>10.886931</v>
       </c>
       <c r="O13">
-        <v>0.497788527641116</v>
+        <v>0.4519202873479077</v>
       </c>
       <c r="P13">
-        <v>0.497788527641116</v>
+        <v>0.4519202873479077</v>
       </c>
       <c r="Q13">
-        <v>1.372907507368387</v>
+        <v>409.295605600574</v>
       </c>
       <c r="R13">
-        <v>1.372907507368387</v>
+        <v>3683.660450405166</v>
       </c>
       <c r="S13">
-        <v>0.001013555208107862</v>
+        <v>0.2609912092966786</v>
       </c>
       <c r="T13">
-        <v>0.001013555208107862</v>
+        <v>0.2609912092966786</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.36172956356006</v>
+        <v>0.06734033333333334</v>
       </c>
       <c r="H14">
-        <v>0.36172956356006</v>
+        <v>0.202021</v>
       </c>
       <c r="I14">
-        <v>0.002036116044921371</v>
+        <v>0.0003448152281789993</v>
       </c>
       <c r="J14">
-        <v>0.002036116044921371</v>
+        <v>0.0003448152281789994</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.148493352936863</v>
+        <v>0.2138683333333334</v>
       </c>
       <c r="N14">
-        <v>0.148493352936863</v>
+        <v>0.6416050000000001</v>
       </c>
       <c r="O14">
-        <v>0.01947576930075245</v>
+        <v>0.02663324640928231</v>
       </c>
       <c r="P14">
-        <v>0.01947576930075245</v>
+        <v>0.02663324640928232</v>
       </c>
       <c r="Q14">
-        <v>0.0537144357494214</v>
+        <v>0.01440196485611111</v>
       </c>
       <c r="R14">
-        <v>0.0537144357494214</v>
+        <v>0.129617683705</v>
       </c>
       <c r="S14">
-        <v>3.965492636044915E-05</v>
+        <v>9.183548937764195E-06</v>
       </c>
       <c r="T14">
-        <v>3.965492636044915E-05</v>
+        <v>9.183548937764198E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.36172956356006</v>
+        <v>0.06734033333333334</v>
       </c>
       <c r="H15">
-        <v>0.36172956356006</v>
+        <v>0.202021</v>
       </c>
       <c r="I15">
-        <v>0.002036116044921371</v>
+        <v>0.0003448152281789993</v>
       </c>
       <c r="J15">
-        <v>0.002036116044921371</v>
+        <v>0.0003448152281789994</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.0349314136909622</v>
+        <v>3.876179</v>
       </c>
       <c r="N15">
-        <v>0.0349314136909622</v>
+        <v>11.628537</v>
       </c>
       <c r="O15">
-        <v>0.004581458637300655</v>
+        <v>0.4827046100021922</v>
       </c>
       <c r="P15">
-        <v>0.004581458637300655</v>
+        <v>0.4827046100021922</v>
       </c>
       <c r="Q15">
-        <v>0.01263572502896766</v>
+        <v>0.2610231859196667</v>
       </c>
       <c r="R15">
-        <v>0.01263572502896766</v>
+        <v>2.349208673277</v>
       </c>
       <c r="S15">
-        <v>9.328381440551465E-06</v>
+        <v>0.0001664439002409608</v>
       </c>
       <c r="T15">
-        <v>9.328381440551465E-06</v>
+        <v>0.0001664439002409608</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,247 +1396,247 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.36172956356006</v>
+        <v>0.06734033333333334</v>
       </c>
       <c r="H16">
-        <v>0.36172956356006</v>
+        <v>0.202021</v>
       </c>
       <c r="I16">
-        <v>0.002036116044921371</v>
+        <v>0.0003448152281789993</v>
       </c>
       <c r="J16">
-        <v>0.002036116044921371</v>
+        <v>0.0003448152281789994</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>3.57402575479224</v>
+        <v>0.02104366666666667</v>
       </c>
       <c r="N16">
-        <v>3.57402575479224</v>
+        <v>0.06313100000000001</v>
       </c>
       <c r="O16">
-        <v>0.4687543226589885</v>
+        <v>0.00262058973833496</v>
       </c>
       <c r="P16">
-        <v>0.4687543226589885</v>
+        <v>0.00262058973833496</v>
       </c>
       <c r="Q16">
-        <v>1.292830776433411</v>
+        <v>0.001417087527888889</v>
       </c>
       <c r="R16">
-        <v>1.292830776433411</v>
+        <v>0.012753787751</v>
       </c>
       <c r="S16">
-        <v>0.000954438197492216</v>
+        <v>9.036192485875132E-07</v>
       </c>
       <c r="T16">
-        <v>0.000954438197492216</v>
+        <v>9.036192485875134E-07</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.348127300682419</v>
+        <v>0.06734033333333334</v>
       </c>
       <c r="H17">
-        <v>0.348127300682419</v>
+        <v>0.202021</v>
       </c>
       <c r="I17">
-        <v>0.001959551150916504</v>
+        <v>0.0003448152281789993</v>
       </c>
       <c r="J17">
-        <v>0.001959551150916504</v>
+        <v>0.0003448152281789994</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.0716698723529368</v>
+        <v>0.237489</v>
       </c>
       <c r="N17">
-        <v>0.0716698723529368</v>
+        <v>0.7124669999999999</v>
       </c>
       <c r="O17">
-        <v>0.009399921761842475</v>
+        <v>0.02957475264295343</v>
       </c>
       <c r="P17">
-        <v>0.009399921761842475</v>
+        <v>0.02957475264295343</v>
       </c>
       <c r="Q17">
-        <v>0.02495023920248142</v>
+        <v>0.015992588423</v>
       </c>
       <c r="R17">
-        <v>0.02495023920248142</v>
+        <v>0.143933295807</v>
       </c>
       <c r="S17">
-        <v>1.841962750694351E-05</v>
+        <v>1.019782508091745E-05</v>
       </c>
       <c r="T17">
-        <v>1.841962750694351E-05</v>
+        <v>1.019782508091745E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.348127300682419</v>
+        <v>0.06734033333333334</v>
       </c>
       <c r="H18">
-        <v>0.348127300682419</v>
+        <v>0.202021</v>
       </c>
       <c r="I18">
-        <v>0.001959551150916504</v>
+        <v>0.0003448152281789993</v>
       </c>
       <c r="J18">
-        <v>0.001959551150916504</v>
+        <v>0.0003448152281789994</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.79539757230939</v>
+        <v>0.05256933333333333</v>
       </c>
       <c r="N18">
-        <v>3.79539757230939</v>
+        <v>0.157708</v>
       </c>
       <c r="O18">
-        <v>0.497788527641116</v>
+        <v>0.006546513859329486</v>
       </c>
       <c r="P18">
-        <v>0.497788527641116</v>
+        <v>0.006546513859329486</v>
       </c>
       <c r="Q18">
-        <v>1.321281511864674</v>
+        <v>0.003540036429777777</v>
       </c>
       <c r="R18">
-        <v>1.321281511864674</v>
+        <v>0.031860327868</v>
       </c>
       <c r="S18">
-        <v>0.0009754420822521805</v>
+        <v>2.257337670181678E-06</v>
       </c>
       <c r="T18">
-        <v>0.0009754420822521805</v>
+        <v>2.257337670181678E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.348127300682419</v>
+        <v>0.06734033333333334</v>
       </c>
       <c r="H19">
-        <v>0.348127300682419</v>
+        <v>0.202021</v>
       </c>
       <c r="I19">
-        <v>0.001959551150916504</v>
+        <v>0.0003448152281789993</v>
       </c>
       <c r="J19">
-        <v>0.001959551150916504</v>
+        <v>0.0003448152281789994</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.148493352936863</v>
+        <v>3.628977</v>
       </c>
       <c r="N19">
-        <v>0.148493352936863</v>
+        <v>10.886931</v>
       </c>
       <c r="O19">
-        <v>0.01947576930075245</v>
+        <v>0.4519202873479077</v>
       </c>
       <c r="P19">
-        <v>0.01947576930075245</v>
+        <v>0.4519202873479077</v>
       </c>
       <c r="Q19">
-        <v>0.05169459012719187</v>
+        <v>0.244376520839</v>
       </c>
       <c r="R19">
-        <v>0.05169459012719187</v>
+        <v>2.199388687551</v>
       </c>
       <c r="S19">
-        <v>3.816376614827378E-05</v>
+        <v>0.0001558289970005877</v>
       </c>
       <c r="T19">
-        <v>3.816376614827378E-05</v>
+        <v>0.0001558289970005878</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.348127300682419</v>
+        <v>0.369332</v>
       </c>
       <c r="H20">
-        <v>0.348127300682419</v>
+        <v>1.107996</v>
       </c>
       <c r="I20">
-        <v>0.001959551150916504</v>
+        <v>0.001891159303049775</v>
       </c>
       <c r="J20">
-        <v>0.001959551150916504</v>
+        <v>0.001891159303049775</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.0349314136909622</v>
+        <v>0.2138683333333334</v>
       </c>
       <c r="N20">
-        <v>0.0349314136909622</v>
+        <v>0.6416050000000001</v>
       </c>
       <c r="O20">
-        <v>0.004581458637300655</v>
+        <v>0.02663324640928231</v>
       </c>
       <c r="P20">
-        <v>0.004581458637300655</v>
+        <v>0.02663324640928232</v>
       </c>
       <c r="Q20">
-        <v>0.01216057875725556</v>
+        <v>0.07898841928666667</v>
       </c>
       <c r="R20">
-        <v>0.01216057875725556</v>
+        <v>0.7108957735800001</v>
       </c>
       <c r="S20">
-        <v>8.977602545598855E-06</v>
+        <v>5.036771171733126E-05</v>
       </c>
       <c r="T20">
-        <v>8.977602545598855E-06</v>
+        <v>5.036771171733126E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,309 +1706,309 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.348127300682419</v>
+        <v>0.369332</v>
       </c>
       <c r="H21">
-        <v>0.348127300682419</v>
+        <v>1.107996</v>
       </c>
       <c r="I21">
-        <v>0.001959551150916504</v>
+        <v>0.001891159303049775</v>
       </c>
       <c r="J21">
-        <v>0.001959551150916504</v>
+        <v>0.001891159303049775</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>3.57402575479224</v>
+        <v>3.876179</v>
       </c>
       <c r="N21">
-        <v>3.57402575479224</v>
+        <v>11.628537</v>
       </c>
       <c r="O21">
-        <v>0.4687543226589885</v>
+        <v>0.4827046100021922</v>
       </c>
       <c r="P21">
-        <v>0.4687543226589885</v>
+        <v>0.4827046100021922</v>
       </c>
       <c r="Q21">
-        <v>1.244215938585268</v>
+        <v>1.431596942428</v>
       </c>
       <c r="R21">
-        <v>1.244215938585268</v>
+        <v>12.884372481852</v>
       </c>
       <c r="S21">
-        <v>0.0009185480724635069</v>
+        <v>0.0009128713138306592</v>
       </c>
       <c r="T21">
-        <v>0.0009185480724635069</v>
+        <v>0.0009128713138306592</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>29.7801012595844</v>
+        <v>0.369332</v>
       </c>
       <c r="H22">
-        <v>29.7801012595844</v>
+        <v>1.107996</v>
       </c>
       <c r="I22">
-        <v>0.1676272776746799</v>
+        <v>0.001891159303049775</v>
       </c>
       <c r="J22">
-        <v>0.1676272776746799</v>
+        <v>0.001891159303049775</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>0.0716698723529368</v>
+        <v>0.02104366666666667</v>
       </c>
       <c r="N22">
-        <v>0.0716698723529368</v>
+        <v>0.06313100000000001</v>
       </c>
       <c r="O22">
-        <v>0.009399921761842475</v>
+        <v>0.00262058973833496</v>
       </c>
       <c r="P22">
-        <v>0.009399921761842475</v>
+        <v>0.00262058973833496</v>
       </c>
       <c r="Q22">
-        <v>2.134336055931946</v>
+        <v>0.007772099497333334</v>
       </c>
       <c r="R22">
-        <v>2.134336055931946</v>
+        <v>0.069948895476</v>
       </c>
       <c r="S22">
-        <v>0.001575683295292635</v>
+        <v>4.955952663128934E-06</v>
       </c>
       <c r="T22">
-        <v>0.001575683295292635</v>
+        <v>4.955952663128934E-06</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>29.7801012595844</v>
+        <v>0.369332</v>
       </c>
       <c r="H23">
-        <v>29.7801012595844</v>
+        <v>1.107996</v>
       </c>
       <c r="I23">
-        <v>0.1676272776746799</v>
+        <v>0.001891159303049775</v>
       </c>
       <c r="J23">
-        <v>0.1676272776746799</v>
+        <v>0.001891159303049775</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>3.79539757230939</v>
+        <v>0.237489</v>
       </c>
       <c r="N23">
-        <v>3.79539757230939</v>
+        <v>0.7124669999999999</v>
       </c>
       <c r="O23">
-        <v>0.497788527641116</v>
+        <v>0.02957475264295343</v>
       </c>
       <c r="P23">
-        <v>0.497788527641116</v>
+        <v>0.02957475264295343</v>
       </c>
       <c r="Q23">
-        <v>113.0273240237544</v>
+        <v>0.08771228734799998</v>
       </c>
       <c r="R23">
-        <v>113.0273240237544</v>
+        <v>0.7894105861319998</v>
       </c>
       <c r="S23">
-        <v>0.08344293574616742</v>
+        <v>5.59305685961173E-05</v>
       </c>
       <c r="T23">
-        <v>0.08344293574616742</v>
+        <v>5.59305685961173E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>29.7801012595844</v>
+        <v>0.369332</v>
       </c>
       <c r="H24">
-        <v>29.7801012595844</v>
+        <v>1.107996</v>
       </c>
       <c r="I24">
-        <v>0.1676272776746799</v>
+        <v>0.001891159303049775</v>
       </c>
       <c r="J24">
-        <v>0.1676272776746799</v>
+        <v>0.001891159303049775</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.148493352936863</v>
+        <v>0.05256933333333333</v>
       </c>
       <c r="N24">
-        <v>0.148493352936863</v>
+        <v>0.157708</v>
       </c>
       <c r="O24">
-        <v>0.01947576930075245</v>
+        <v>0.006546513859329486</v>
       </c>
       <c r="P24">
-        <v>0.01947576930075245</v>
+        <v>0.006546513859329486</v>
       </c>
       <c r="Q24">
-        <v>4.422147086834984</v>
+        <v>0.01941553701866667</v>
       </c>
       <c r="R24">
-        <v>4.422147086834984</v>
+        <v>0.174739833168</v>
       </c>
       <c r="S24">
-        <v>0.003264670188505238</v>
+        <v>1.238050058761524E-05</v>
       </c>
       <c r="T24">
-        <v>0.003264670188505238</v>
+        <v>1.238050058761524E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>29.7801012595844</v>
+        <v>0.369332</v>
       </c>
       <c r="H25">
-        <v>29.7801012595844</v>
+        <v>1.107996</v>
       </c>
       <c r="I25">
-        <v>0.1676272776746799</v>
+        <v>0.001891159303049775</v>
       </c>
       <c r="J25">
-        <v>0.1676272776746799</v>
+        <v>0.001891159303049775</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.0349314136909622</v>
+        <v>3.628977</v>
       </c>
       <c r="N25">
-        <v>0.0349314136909622</v>
+        <v>10.886931</v>
       </c>
       <c r="O25">
-        <v>0.004581458637300655</v>
+        <v>0.4519202873479077</v>
       </c>
       <c r="P25">
-        <v>0.004581458637300655</v>
+        <v>0.4519202873479077</v>
       </c>
       <c r="Q25">
-        <v>1.040261036857287</v>
+        <v>1.340297333364</v>
       </c>
       <c r="R25">
-        <v>1.040261036857287</v>
+        <v>12.062676000276</v>
       </c>
       <c r="S25">
-        <v>0.0007679774391498574</v>
+        <v>0.000854653255654923</v>
       </c>
       <c r="T25">
-        <v>0.0007679774391498574</v>
+        <v>0.000854653255654923</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2013,61 +2016,743 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.3504243333333334</v>
+      </c>
+      <c r="H26">
+        <v>1.051273</v>
+      </c>
+      <c r="I26">
+        <v>0.001794342862244129</v>
+      </c>
+      <c r="J26">
+        <v>0.001794342862244129</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.2138683333333334</v>
+      </c>
+      <c r="N26">
+        <v>0.6416050000000001</v>
+      </c>
+      <c r="O26">
+        <v>0.02663324640928231</v>
+      </c>
+      <c r="P26">
+        <v>0.02663324640928232</v>
+      </c>
+      <c r="Q26">
+        <v>0.07494466812944446</v>
+      </c>
+      <c r="R26">
+        <v>0.6745020131650001</v>
+      </c>
+      <c r="S26">
+        <v>4.77891755928848E-05</v>
+      </c>
+      <c r="T26">
+        <v>4.778917559288481E-05</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0.3504243333333334</v>
+      </c>
+      <c r="H27">
+        <v>1.051273</v>
+      </c>
+      <c r="I27">
+        <v>0.001794342862244129</v>
+      </c>
+      <c r="J27">
+        <v>0.001794342862244129</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>3.876179</v>
+      </c>
+      <c r="N27">
+        <v>11.628537</v>
+      </c>
+      <c r="O27">
+        <v>0.4827046100021922</v>
+      </c>
+      <c r="P27">
+        <v>0.4827046100021922</v>
+      </c>
+      <c r="Q27">
+        <v>1.358307441955667</v>
+      </c>
+      <c r="R27">
+        <v>12.224766977601</v>
+      </c>
+      <c r="S27">
+        <v>0.0008661375715297696</v>
+      </c>
+      <c r="T27">
+        <v>0.0008661375715297697</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0.3504243333333334</v>
+      </c>
+      <c r="H28">
+        <v>1.051273</v>
+      </c>
+      <c r="I28">
+        <v>0.001794342862244129</v>
+      </c>
+      <c r="J28">
+        <v>0.001794342862244129</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M28">
+        <v>0.02104366666666667</v>
+      </c>
+      <c r="N28">
+        <v>0.06313100000000001</v>
+      </c>
+      <c r="O28">
+        <v>0.00262058973833496</v>
+      </c>
+      <c r="P28">
+        <v>0.00262058973833496</v>
+      </c>
+      <c r="Q28">
+        <v>0.007374212862555558</v>
+      </c>
+      <c r="R28">
+        <v>0.06636791576300001</v>
+      </c>
+      <c r="S28">
+        <v>4.702236491851545E-06</v>
+      </c>
+      <c r="T28">
+        <v>4.702236491851545E-06</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0.3504243333333334</v>
+      </c>
+      <c r="H29">
+        <v>1.051273</v>
+      </c>
+      <c r="I29">
+        <v>0.001794342862244129</v>
+      </c>
+      <c r="J29">
+        <v>0.001794342862244129</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>0.237489</v>
+      </c>
+      <c r="N29">
+        <v>0.7124669999999999</v>
+      </c>
+      <c r="O29">
+        <v>0.02957475264295343</v>
+      </c>
+      <c r="P29">
+        <v>0.02957475264295343</v>
+      </c>
+      <c r="Q29">
+        <v>0.083221924499</v>
+      </c>
+      <c r="R29">
+        <v>0.748997320491</v>
+      </c>
+      <c r="S29">
+        <v>5.306724630751919E-05</v>
+      </c>
+      <c r="T29">
+        <v>5.306724630751919E-05</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0.3504243333333334</v>
+      </c>
+      <c r="H30">
+        <v>1.051273</v>
+      </c>
+      <c r="I30">
+        <v>0.001794342862244129</v>
+      </c>
+      <c r="J30">
+        <v>0.001794342862244129</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>0.05256933333333333</v>
+      </c>
+      <c r="N30">
+        <v>0.157708</v>
+      </c>
+      <c r="O30">
+        <v>0.006546513859329486</v>
+      </c>
+      <c r="P30">
+        <v>0.006546513859329486</v>
+      </c>
+      <c r="Q30">
+        <v>0.01842157358711111</v>
+      </c>
+      <c r="R30">
+        <v>0.165794162284</v>
+      </c>
+      <c r="S30">
+        <v>1.174669041607013E-05</v>
+      </c>
+      <c r="T30">
+        <v>1.174669041607013E-05</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0.3504243333333334</v>
+      </c>
+      <c r="H31">
+        <v>1.051273</v>
+      </c>
+      <c r="I31">
+        <v>0.001794342862244129</v>
+      </c>
+      <c r="J31">
+        <v>0.001794342862244129</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>3.628977</v>
+      </c>
+      <c r="N31">
+        <v>10.886931</v>
+      </c>
+      <c r="O31">
+        <v>0.4519202873479077</v>
+      </c>
+      <c r="P31">
+        <v>0.4519202873479077</v>
+      </c>
+      <c r="Q31">
+        <v>1.271681845907</v>
+      </c>
+      <c r="R31">
+        <v>11.445136613163</v>
+      </c>
+      <c r="S31">
+        <v>0.000810899941906034</v>
+      </c>
+      <c r="T31">
+        <v>0.0008108999419060341</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>32.47085233333333</v>
+      </c>
+      <c r="H32">
+        <v>97.41255699999999</v>
+      </c>
+      <c r="I32">
+        <v>0.1662665419409605</v>
+      </c>
+      <c r="J32">
+        <v>0.1662665419409605</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>0.2138683333333334</v>
+      </c>
+      <c r="N32">
+        <v>0.6416050000000001</v>
+      </c>
+      <c r="O32">
+        <v>0.02663324640928231</v>
+      </c>
+      <c r="P32">
+        <v>0.02663324640928232</v>
+      </c>
+      <c r="Q32">
+        <v>6.944487070442778</v>
+      </c>
+      <c r="R32">
+        <v>62.500383633985</v>
+      </c>
+      <c r="S32">
+        <v>0.004428217781132873</v>
+      </c>
+      <c r="T32">
+        <v>0.004428217781132874</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>32.47085233333333</v>
+      </c>
+      <c r="H33">
+        <v>97.41255699999999</v>
+      </c>
+      <c r="I33">
+        <v>0.1662665419409605</v>
+      </c>
+      <c r="J33">
+        <v>0.1662665419409605</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>3.876179</v>
+      </c>
+      <c r="N33">
+        <v>11.628537</v>
+      </c>
+      <c r="O33">
+        <v>0.4827046100021922</v>
+      </c>
+      <c r="P33">
+        <v>0.4827046100021922</v>
+      </c>
+      <c r="Q33">
+        <v>125.8628359265677</v>
+      </c>
+      <c r="R33">
+        <v>1132.765523339109</v>
+      </c>
+      <c r="S33">
+        <v>0.08025762628402447</v>
+      </c>
+      <c r="T33">
+        <v>0.08025762628402447</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>32.47085233333333</v>
+      </c>
+      <c r="H34">
+        <v>97.41255699999999</v>
+      </c>
+      <c r="I34">
+        <v>0.1662665419409605</v>
+      </c>
+      <c r="J34">
+        <v>0.1662665419409605</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M34">
+        <v>0.02104366666666667</v>
+      </c>
+      <c r="N34">
+        <v>0.06313100000000001</v>
+      </c>
+      <c r="O34">
+        <v>0.00262058973833496</v>
+      </c>
+      <c r="P34">
+        <v>0.00262058973833496</v>
+      </c>
+      <c r="Q34">
+        <v>0.6833057928852223</v>
+      </c>
+      <c r="R34">
+        <v>6.149752135967</v>
+      </c>
+      <c r="S34">
+        <v>0.0004357163936389202</v>
+      </c>
+      <c r="T34">
+        <v>0.0004357163936389202</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>32.47085233333333</v>
+      </c>
+      <c r="H35">
+        <v>97.41255699999999</v>
+      </c>
+      <c r="I35">
+        <v>0.1662665419409605</v>
+      </c>
+      <c r="J35">
+        <v>0.1662665419409605</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>0.237489</v>
+      </c>
+      <c r="N35">
+        <v>0.7124669999999999</v>
+      </c>
+      <c r="O35">
+        <v>0.02957475264295343</v>
+      </c>
+      <c r="P35">
+        <v>0.02957475264295343</v>
+      </c>
+      <c r="Q35">
+        <v>7.711470249790998</v>
+      </c>
+      <c r="R35">
+        <v>69.40323224811898</v>
+      </c>
+      <c r="S35">
+        <v>0.004917291850703149</v>
+      </c>
+      <c r="T35">
+        <v>0.004917291850703149</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>29.7801012595844</v>
-      </c>
-      <c r="H26">
-        <v>29.7801012595844</v>
-      </c>
-      <c r="I26">
-        <v>0.1676272776746799</v>
-      </c>
-      <c r="J26">
-        <v>0.1676272776746799</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>3.57402575479224</v>
-      </c>
-      <c r="N26">
-        <v>3.57402575479224</v>
-      </c>
-      <c r="O26">
-        <v>0.4687543226589885</v>
-      </c>
-      <c r="P26">
-        <v>0.4687543226589885</v>
-      </c>
-      <c r="Q26">
-        <v>106.4348488820755</v>
-      </c>
-      <c r="R26">
-        <v>106.4348488820755</v>
-      </c>
-      <c r="S26">
-        <v>0.07857601100556474</v>
-      </c>
-      <c r="T26">
-        <v>0.07857601100556474</v>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>32.47085233333333</v>
+      </c>
+      <c r="H36">
+        <v>97.41255699999999</v>
+      </c>
+      <c r="I36">
+        <v>0.1662665419409605</v>
+      </c>
+      <c r="J36">
+        <v>0.1662665419409605</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>0.05256933333333333</v>
+      </c>
+      <c r="N36">
+        <v>0.157708</v>
+      </c>
+      <c r="O36">
+        <v>0.006546513859329486</v>
+      </c>
+      <c r="P36">
+        <v>0.006546513859329486</v>
+      </c>
+      <c r="Q36">
+        <v>1.706971059928444</v>
+      </c>
+      <c r="R36">
+        <v>15.362739539356</v>
+      </c>
+      <c r="S36">
+        <v>0.001088466221159285</v>
+      </c>
+      <c r="T36">
+        <v>0.001088466221159285</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>32.47085233333333</v>
+      </c>
+      <c r="H37">
+        <v>97.41255699999999</v>
+      </c>
+      <c r="I37">
+        <v>0.1662665419409605</v>
+      </c>
+      <c r="J37">
+        <v>0.1662665419409605</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>3.628977</v>
+      </c>
+      <c r="N37">
+        <v>10.886931</v>
+      </c>
+      <c r="O37">
+        <v>0.4519202873479077</v>
+      </c>
+      <c r="P37">
+        <v>0.4519202873479077</v>
+      </c>
+      <c r="Q37">
+        <v>117.835976288063</v>
+      </c>
+      <c r="R37">
+        <v>1060.523786592567</v>
+      </c>
+      <c r="S37">
+        <v>0.07513922341030181</v>
+      </c>
+      <c r="T37">
+        <v>0.07513922341030181</v>
       </c>
     </row>
   </sheetData>
